--- a/data/Sample Data.xlsx
+++ b/data/Sample Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleza\GitHub\iwrc-reports-dataviz-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleza\GitHub\iwrc-reports-dataviz-01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1133C1F3-3A84-4D88-80D5-48FC611CE6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02CEC143-8536-49E4-86FA-D6293AE5DD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="255" firstSheet="2" activeTab="3" xr2:uid="{38E2AC96-5AF4-4BA7-B92B-D92858B86B1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="379" xr2:uid="{38E2AC96-5AF4-4BA7-B92B-D92858B86B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_projects" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="365">
   <si>
     <t>Project ID</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Conversion of Per- and Polyfluoroalkyl Substances (PFAS) to Valuable Chemicals via Electrochemical Destruction Process</t>
   </si>
   <si>
-    <t>Water-Related Hazards</t>
-  </si>
-  <si>
     <t>PFAs</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>IL_2023_Su</t>
   </si>
   <si>
-    <t>Water Technology and Innovation</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -1012,9 +1006,6 @@
     <t>Name of Geographic Study Area</t>
   </si>
   <si>
-    <t>Undegraduates Supported by WRRA $</t>
-  </si>
-  <si>
     <t>Diversity, Equity, Inclusion, Accessibility, and Justice</t>
   </si>
   <si>
@@ -1208,6 +1199,9 @@
   </si>
   <si>
     <t>EPA</t>
+  </si>
+  <si>
+    <t>Undergraduates Supported by WRRA $</t>
   </si>
 </sst>
 </file>
@@ -1762,11 +1756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC916F1-1C3E-4382-935B-456934F86C22}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1820,10 +1814,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -1838,7 +1832,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>15</v>
@@ -1861,7 +1855,7 @@
         <v>10000</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>20</v>
@@ -1923,7 +1917,7 @@
         <v>20000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
@@ -1962,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S3" s="5">
         <v>2</v>
@@ -1985,7 +1979,7 @@
         <v>10000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>36</v>
@@ -2022,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S4" s="7">
         <v>3</v>
@@ -2031,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>41</v>
       </c>
@@ -2045,7 +2039,7 @@
         <v>15000</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>36</v>
@@ -2093,7 +2087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -2107,7 +2101,7 @@
         <v>300000</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>54</v>
@@ -2153,7 +2147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>56</v>
       </c>
@@ -2167,7 +2161,7 @@
         <v>10000</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>28</v>
@@ -2204,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S7" s="13">
         <v>9</v>
@@ -2213,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -2227,25 +2221,25 @@
         <v>15000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="L8" s="3">
         <v>2</v>
@@ -2275,10 +2269,10 @@
     </row>
     <row r="9" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
@@ -2287,22 +2281,22 @@
         <v>15000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>25</v>
@@ -2335,36 +2329,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="8">
         <v>200000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
@@ -2397,12 +2391,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2411,7 +2405,7 @@
         <v>10000</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>20</v>
@@ -2420,13 +2414,13 @@
         <v>58</v>
       </c>
       <c r="H11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9">
@@ -2448,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S11" s="9">
         <v>15</v>
@@ -2457,12 +2451,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>48</v>
@@ -2471,7 +2465,7 @@
         <v>238013</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>54</v>
@@ -2486,7 +2480,7 @@
         <v>44</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>25</v>
@@ -2517,12 +2511,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>19</v>
@@ -2531,16 +2525,16 @@
         <v>15000</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>44</v>
@@ -2579,10 +2573,10 @@
     </row>
     <row r="14" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -2591,22 +2585,22 @@
         <v>9700</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>25</v>
@@ -2630,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="S14" s="3">
         <v>20</v>
@@ -2641,10 +2635,10 @@
     </row>
     <row r="15" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -2653,22 +2647,22 @@
         <v>14998</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>55</v>
@@ -2699,12 +2693,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
@@ -2713,22 +2707,22 @@
         <v>9500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7">
@@ -2750,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S16" s="7">
         <v>23</v>
@@ -2761,10 +2755,10 @@
     </row>
     <row r="17" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>48</v>
@@ -2773,7 +2767,7 @@
         <v>122318</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>28</v>
@@ -2785,10 +2779,10 @@
         <v>50</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>25</v>
@@ -2823,10 +2817,10 @@
     </row>
     <row r="18" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>19</v>
@@ -2835,7 +2829,7 @@
         <v>15141</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>28</v>
@@ -2850,7 +2844,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>55</v>
@@ -2881,12 +2875,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>19</v>
@@ -2895,13 +2889,13 @@
         <v>10000</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>50</v>
@@ -2910,7 +2904,7 @@
         <v>29</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>25</v>
@@ -2943,33 +2937,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4">
         <v>250000</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>61</v>
@@ -3003,36 +2997,36 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6">
         <v>200000</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>55</v>
@@ -3063,12 +3057,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>19</v>
@@ -3077,16 +3071,16 @@
         <v>15000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>46</v>
@@ -3125,10 +3119,10 @@
     </row>
     <row r="23" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>19</v>
@@ -3137,22 +3131,22 @@
         <v>5000</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
@@ -3174,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S23" s="9">
         <v>37</v>
@@ -3185,10 +3179,10 @@
     </row>
     <row r="24" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>19</v>
@@ -3197,16 +3191,18 @@
         <v>9999</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>316</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G24" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11">
@@ -3228,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S24" s="11">
         <v>39</v>
@@ -3237,12 +3233,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>19</v>
@@ -3251,25 +3247,25 @@
         <v>15000</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3299,10 +3295,10 @@
     </row>
     <row r="26" spans="1:20" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -3311,7 +3307,7 @@
         <v>240624</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>54</v>
@@ -3326,7 +3322,7 @@
         <v>50</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>55</v>
@@ -3358,6 +3354,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T26">
+    <sortCondition ref="S2:S26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3396,28 +3395,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>15</v>
@@ -3434,13 +3433,13 @@
         <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -3466,13 +3465,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -3498,13 +3497,13 @@
         <v>35</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -3530,13 +3529,13 @@
         <v>42</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F5" s="9">
         <v>2025</v>
@@ -3549,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K5" s="9">
         <v>5</v>
@@ -3566,15 +3565,15 @@
         <v>53</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H6" s="11">
         <v>2</v>
@@ -3598,15 +3597,15 @@
         <v>53</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H7" s="16">
         <v>2</v>
@@ -3630,15 +3629,15 @@
         <v>53</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8" s="16">
         <v>3</v>
@@ -3662,13 +3661,13 @@
         <v>57</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -3692,13 +3691,13 @@
         <v>57</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -3716,19 +3715,19 @@
     </row>
     <row r="11" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F11" s="5">
         <v>2024</v>
@@ -3750,19 +3749,19 @@
     </row>
     <row r="12" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F12" s="27">
         <v>2025</v>
@@ -3784,19 +3783,19 @@
     </row>
     <row r="13" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="F13" s="7">
         <v>2024</v>
@@ -3818,21 +3817,21 @@
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H14" s="15">
         <v>1</v>
@@ -3850,21 +3849,21 @@
     </row>
     <row r="15" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="15">
         <v>1</v>
@@ -3882,21 +3881,21 @@
     </row>
     <row r="16" spans="1:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
@@ -3905,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K16" s="9">
         <v>15</v>
@@ -3916,19 +3915,19 @@
     </row>
     <row r="17" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="11">
         <v>2024</v>
@@ -3950,19 +3949,19 @@
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" s="16">
         <v>2025</v>
@@ -3984,21 +3983,21 @@
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" s="16">
         <v>1</v>
@@ -4016,19 +4015,19 @@
     </row>
     <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F20" s="16">
         <v>2023</v>
@@ -4050,19 +4049,19 @@
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F21" s="16">
         <v>2022</v>
@@ -4084,21 +4083,21 @@
     </row>
     <row r="22" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H22" s="16">
         <v>1</v>
@@ -4116,19 +4115,19 @@
     </row>
     <row r="23" spans="1:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F23" s="13">
         <v>2025</v>
@@ -4150,13 +4149,13 @@
     </row>
     <row r="24" spans="1:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -4164,7 +4163,7 @@
         <v>2023</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -4182,19 +4181,19 @@
     </row>
     <row r="25" spans="1:12" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F25" s="5">
         <v>2025</v>
@@ -4216,21 +4215,21 @@
     </row>
     <row r="26" spans="1:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4246,19 +4245,19 @@
     </row>
     <row r="27" spans="1:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -4272,19 +4271,19 @@
     </row>
     <row r="28" spans="1:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H28" s="11">
         <v>3</v>
@@ -4302,19 +4301,19 @@
     </row>
     <row r="29" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -4328,19 +4327,19 @@
     </row>
     <row r="30" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -4354,19 +4353,19 @@
     </row>
     <row r="31" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F31" s="3">
         <v>2025</v>
@@ -4388,21 +4387,21 @@
     </row>
     <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H32" s="18">
         <v>2</v>
@@ -4420,19 +4419,19 @@
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F33" s="18">
         <v>2022</v>
@@ -4454,21 +4453,21 @@
     </row>
     <row r="34" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H34" s="18">
         <v>2</v>
@@ -4486,19 +4485,19 @@
     </row>
     <row r="35" spans="1:12" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F35" s="5">
         <v>2025</v>
@@ -4520,19 +4519,19 @@
     </row>
     <row r="36" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F36" s="19">
         <v>2025</v>
@@ -4554,19 +4553,19 @@
     </row>
     <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F37" s="19">
         <v>2025</v>
@@ -4588,21 +4587,21 @@
     </row>
     <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H38" s="19">
         <v>1</v>
@@ -4620,19 +4619,19 @@
     </row>
     <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F39" s="19">
         <v>2023</v>
@@ -4654,19 +4653,19 @@
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F40" s="19">
         <v>2024</v>
@@ -4688,19 +4687,19 @@
     </row>
     <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F41" s="19">
         <v>2024</v>
@@ -4722,19 +4721,19 @@
     </row>
     <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F42" s="19">
         <v>2023</v>
@@ -4756,19 +4755,19 @@
     </row>
     <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F43" s="19">
         <v>2023</v>
@@ -4790,21 +4789,21 @@
     </row>
     <row r="44" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H44" s="19">
         <v>1</v>
@@ -4822,25 +4821,25 @@
     </row>
     <row r="45" spans="1:12" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F45" s="19">
         <v>2023</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H45" s="19">
         <v>1</v>
@@ -4858,19 +4857,19 @@
     </row>
     <row r="46" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F46" s="7">
         <v>2025</v>
@@ -4892,21 +4891,21 @@
     </row>
     <row r="47" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H47" s="15">
         <v>2</v>
@@ -4915,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K47" s="15">
         <v>36.1</v>
@@ -4926,19 +4925,19 @@
     </row>
     <row r="48" spans="1:12" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F48" s="9">
         <v>2024</v>
@@ -4960,19 +4959,19 @@
     </row>
     <row r="49" spans="1:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4990,19 +4989,19 @@
     </row>
     <row r="50" spans="1:12" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F50" s="3">
         <v>2025</v>
@@ -5024,19 +5023,19 @@
     </row>
     <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -5052,19 +5051,19 @@
     </row>
     <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -5080,19 +5079,19 @@
     </row>
     <row r="53" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -5108,19 +5107,19 @@
     </row>
     <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F54" s="18">
         <v>2024</v>
@@ -5142,19 +5141,19 @@
     </row>
     <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" s="18">
         <v>2024</v>
@@ -5165,7 +5164,7 @@
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K55" s="18">
         <v>43.5</v>
@@ -5176,19 +5175,19 @@
     </row>
     <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F56" s="18">
         <v>2024</v>
@@ -5199,7 +5198,7 @@
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K56" s="18">
         <v>43.6</v>
@@ -5210,19 +5209,19 @@
     </row>
     <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F57" s="18">
         <v>2023</v>
@@ -5233,7 +5232,7 @@
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K57" s="18">
         <v>43.7</v>
@@ -5282,31 +5281,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>15</v>
@@ -5323,13 +5322,13 @@
         <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -5341,7 +5340,7 @@
         <v>250000</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L2" s="13">
         <v>9</v>
@@ -5358,13 +5357,13 @@
         <v>57</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -5385,31 +5384,31 @@
     </row>
     <row r="4" spans="1:13" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="F4" s="5">
         <v>2024</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
@@ -5422,10 +5421,10 @@
     </row>
     <row r="5" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -5445,37 +5444,37 @@
     </row>
     <row r="6" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F6" s="3">
         <v>2023</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="J6" s="4">
         <v>6000</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L6" s="3">
         <v>20</v>
@@ -5486,31 +5485,31 @@
     </row>
     <row r="7" spans="1:13" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="F7" s="3">
         <v>2024</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J7" s="4">
         <v>198167</v>
@@ -5525,31 +5524,31 @@
     </row>
     <row r="8" spans="1:13" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F8" s="3">
         <v>2021</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J8" s="4">
         <v>1000</v>
@@ -5564,37 +5563,37 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F9" s="18">
         <v>2021</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J9" s="22">
         <v>500</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L9" s="18">
         <v>43.1</v>
@@ -5605,37 +5604,37 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F10" s="18">
         <v>2022</v>
       </c>
       <c r="G10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="J10" s="22">
         <v>4965</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L10" s="18">
         <v>43.2</v>
@@ -5646,37 +5645,37 @@
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F11" s="18">
         <v>2023</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J11" s="22">
         <v>500</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L11" s="18">
         <v>43.3</v>
@@ -5687,37 +5686,37 @@
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F12" s="18">
         <v>2024</v>
       </c>
       <c r="G12" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="J12" s="22">
         <v>250</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L12" s="18">
         <v>43.4</v>
@@ -5728,33 +5727,33 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F13" s="18">
         <v>2024</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L13" s="18">
         <v>43.5</v>
@@ -5765,29 +5764,29 @@
     </row>
     <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F14" s="18">
         <v>2024</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="18"/>
@@ -5800,10 +5799,10 @@
     </row>
     <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -5830,11 +5829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F28709-772E-4AE5-AC3E-D82BFE8FE705}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5892,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -5907,13 +5906,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
@@ -5925,7 +5924,7 @@
         <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>11</v>
@@ -5940,58 +5939,58 @@
         <v>14</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AL1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>15</v>
@@ -6000,7 +5999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
@@ -6020,7 +6019,7 @@
         <v>10000</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>20</v>
@@ -6035,10 +6034,10 @@
         <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
@@ -6101,7 +6100,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
@@ -6110,7 +6109,7 @@
         <v>20000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>28</v>
@@ -6125,13 +6124,13 @@
         <v>31</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>32</v>
@@ -6156,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
@@ -6182,7 +6181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="180.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -6190,10 +6189,10 @@
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>19</v>
@@ -6202,7 +6201,7 @@
         <v>10000</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>36</v>
@@ -6217,13 +6216,13 @@
         <v>39</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>40</v>
@@ -6244,16 +6243,16 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
@@ -6280,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
@@ -6309,13 +6308,13 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
@@ -6342,7 +6341,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>34</v>
       </c>
@@ -6371,13 +6370,13 @@
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
@@ -6404,7 +6403,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>19</v>
@@ -6424,7 +6423,7 @@
         <v>15000</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>36</v>
@@ -6439,13 +6438,13 @@
         <v>44</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>45</v>
@@ -6475,13 +6474,13 @@
         <v>1</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA7" s="9">
         <v>2025</v>
@@ -6494,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
@@ -6512,7 +6511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="210.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>48</v>
@@ -6532,7 +6531,7 @@
         <v>300000</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>54</v>
@@ -6547,13 +6546,13 @@
         <v>23</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>51</v>
@@ -6581,15 +6580,15 @@
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC8" s="11">
         <v>2</v>
@@ -6614,7 +6613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>52</v>
       </c>
@@ -6643,15 +6642,15 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC9" s="16">
         <v>2</v>
@@ -6676,7 +6675,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>52</v>
       </c>
@@ -6705,15 +6704,15 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC10" s="16">
         <v>3</v>
@@ -6738,7 +6737,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="135.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -6746,10 +6745,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -6758,7 +6757,7 @@
         <v>10000</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>28</v>
@@ -6773,10 +6772,10 @@
         <v>60</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13" t="s">
@@ -6798,16 +6797,16 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
@@ -6817,7 +6816,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
@@ -6831,7 +6830,7 @@
         <v>250000</v>
       </c>
       <c r="AN11" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AO11" s="13">
         <v>9</v>
@@ -6840,7 +6839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>56</v>
       </c>
@@ -6869,13 +6868,13 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
@@ -6885,7 +6884,7 @@
       <c r="AD12" s="17"/>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
@@ -6906,7 +6905,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
@@ -6926,32 +6925,32 @@
         <v>15000</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Q13" s="3">
         <v>2</v>
@@ -6996,18 +6995,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>19</v>
@@ -7016,29 +7015,29 @@
         <v>15000</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>25</v>
@@ -7063,13 +7062,13 @@
         <v>3</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA14" s="5">
         <v>2024</v>
@@ -7083,25 +7082,25 @@
       </c>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH14" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH14" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="AI14" s="5">
         <v>2024</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AM14" s="6"/>
       <c r="AN14" s="5"/>
@@ -7112,12 +7111,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -7141,13 +7140,13 @@
       <c r="V15" s="27"/>
       <c r="W15" s="27"/>
       <c r="X15" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y15" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA15" s="27">
         <v>2025</v>
@@ -7176,49 +7175,49 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="135.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="255.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="7">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8">
         <v>200000</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>25</v>
@@ -7243,13 +7242,13 @@
         <v>1</v>
       </c>
       <c r="X16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z16" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="AA16" s="7">
         <v>2024</v>
@@ -7278,12 +7277,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -7307,15 +7306,15 @@
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y17" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
       <c r="AB17" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC17" s="15">
         <v>1</v>
@@ -7340,12 +7339,12 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -7369,15 +7368,15 @@
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y18" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC18" s="15">
         <v>1</v>
@@ -7404,16 +7403,16 @@
     </row>
     <row r="19" spans="1:42" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>19</v>
@@ -7422,7 +7421,7 @@
         <v>10000</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>20</v>
@@ -7431,20 +7430,20 @@
         <v>58</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9">
@@ -7462,14 +7461,14 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -7480,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -7498,18 +7497,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="210.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="240.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="11">
         <v>13</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>48</v>
@@ -7518,7 +7517,7 @@
         <v>238013</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>54</v>
@@ -7533,14 +7532,14 @@
         <v>44</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>25</v>
@@ -7565,13 +7564,13 @@
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA20" s="11">
         <v>2024</v>
@@ -7600,12 +7599,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -7629,13 +7628,13 @@
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z21" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA21" s="16">
         <v>2025</v>
@@ -7664,12 +7663,12 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -7693,15 +7692,15 @@
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
       <c r="AB22" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC22" s="16">
         <v>1</v>
@@ -7726,12 +7725,12 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="285" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -7755,13 +7754,13 @@
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA23" s="16">
         <v>2023</v>
@@ -7790,12 +7789,12 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -7819,13 +7818,13 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AA24" s="16">
         <v>2022</v>
@@ -7854,12 +7853,12 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -7883,15 +7882,15 @@
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
       <c r="AB25" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AC25" s="16">
         <v>1</v>
@@ -7918,16 +7917,16 @@
     </row>
     <row r="26" spans="1:42" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="13">
         <v>12</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>19</v>
@@ -7936,28 +7935,28 @@
         <v>15000</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>44</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O26" s="13" t="s">
         <v>45</v>
@@ -7985,13 +7984,13 @@
       </c>
       <c r="W26" s="13"/>
       <c r="X26" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y26" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA26" s="13">
         <v>2025</v>
@@ -8022,16 +8021,16 @@
     </row>
     <row r="27" spans="1:42" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3">
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>19</v>
@@ -8040,31 +8039,31 @@
         <v>9700</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>25</v>
@@ -8086,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
@@ -8097,7 +8096,7 @@
         <v>2023</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC27" s="3">
         <v>0</v>
@@ -8107,31 +8106,31 @@
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG27" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AI27" s="3">
         <v>2023</v>
       </c>
       <c r="AJ27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL27" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="AK27" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL27" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="AM27" s="4">
         <v>6000</v>
       </c>
       <c r="AN27" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AO27" s="3">
         <v>20</v>
@@ -8142,16 +8141,16 @@
     </row>
     <row r="28" spans="1:42" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C28" s="5">
         <v>13</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>19</v>
@@ -8160,29 +8159,29 @@
         <v>14998</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="K28" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>55</v>
@@ -8207,13 +8206,13 @@
       </c>
       <c r="W28" s="5"/>
       <c r="X28" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA28" s="5">
         <v>2025</v>
@@ -8244,16 +8243,16 @@
     </row>
     <row r="29" spans="1:42" ht="196.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>19</v>
@@ -8262,29 +8261,29 @@
         <v>9500</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7">
@@ -8302,14 +8301,14 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
@@ -8336,16 +8335,16 @@
     </row>
     <row r="30" spans="1:42" ht="211.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="9">
         <v>15</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>48</v>
@@ -8354,7 +8353,7 @@
         <v>122318</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>28</v>
@@ -8366,17 +8365,17 @@
         <v>50</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>25</v>
@@ -8403,13 +8402,13 @@
         <v>1</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
@@ -8432,16 +8431,16 @@
     </row>
     <row r="31" spans="1:42" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="11">
         <v>13</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>19</v>
@@ -8450,7 +8449,7 @@
         <v>15141</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>28</v>
@@ -8465,16 +8464,16 @@
         <v>23</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>55</v>
@@ -8499,13 +8498,13 @@
       </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC31" s="11">
         <v>3</v>
@@ -8532,16 +8531,16 @@
     </row>
     <row r="32" spans="1:42" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C32" s="13">
         <v>15</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>19</v>
@@ -8550,13 +8549,13 @@
         <v>10000</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>50</v>
@@ -8565,16 +8564,16 @@
         <v>29</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>25</v>
@@ -8599,13 +8598,13 @@
         <v>3</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
@@ -8628,10 +8627,10 @@
     </row>
     <row r="33" spans="1:42" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -8655,13 +8654,13 @@
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
       <c r="X33" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
@@ -8684,46 +8683,46 @@
     </row>
     <row r="34" spans="1:42" ht="135.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="3">
         <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F34" s="4">
         <v>250000</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>61</v>
@@ -8751,13 +8750,13 @@
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA34" s="3">
         <v>2025</v>
@@ -8771,25 +8770,25 @@
       </c>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH34" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="AG34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH34" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="AI34" s="3">
         <v>2024</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AK34" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AL34" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AM34" s="4">
         <v>198167</v>
@@ -8804,10 +8803,10 @@
     </row>
     <row r="35" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -8831,15 +8830,15 @@
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
       <c r="X35" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y35" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z35" s="18"/>
       <c r="AA35" s="18"/>
       <c r="AB35" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AC35" s="18">
         <v>2</v>
@@ -8866,10 +8865,10 @@
     </row>
     <row r="36" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -8893,13 +8892,13 @@
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
       <c r="X36" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y36" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA36" s="18">
         <v>2022</v>
@@ -8930,10 +8929,10 @@
     </row>
     <row r="37" spans="1:42" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -8957,15 +8956,15 @@
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
       <c r="X37" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y37" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
       <c r="AB37" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AC37" s="18">
         <v>2</v>
@@ -8992,47 +8991,47 @@
     </row>
     <row r="38" spans="1:42" ht="255.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="5">
         <v>13</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" s="6">
         <v>200000</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>55</v>
@@ -9057,13 +9056,13 @@
       </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AA38" s="5">
         <v>2025</v>
@@ -9094,10 +9093,10 @@
     </row>
     <row r="39" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -9121,13 +9120,13 @@
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
       <c r="X39" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AA39" s="19">
         <v>2025</v>
@@ -9158,10 +9157,10 @@
     </row>
     <row r="40" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -9185,13 +9184,13 @@
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
       <c r="X40" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AA40" s="19">
         <v>2025</v>
@@ -9222,10 +9221,10 @@
     </row>
     <row r="41" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -9249,15 +9248,15 @@
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
       <c r="X41" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y41" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z41" s="19"/>
       <c r="AA41" s="19"/>
       <c r="AB41" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC41" s="19">
         <v>1</v>
@@ -9284,10 +9283,10 @@
     </row>
     <row r="42" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -9311,13 +9310,13 @@
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
       <c r="X42" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y42" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA42" s="19">
         <v>2023</v>
@@ -9348,10 +9347,10 @@
     </row>
     <row r="43" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -9375,13 +9374,13 @@
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
       <c r="X43" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y43" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z43" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA43" s="19">
         <v>2024</v>
@@ -9412,10 +9411,10 @@
     </row>
     <row r="44" spans="1:42" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -9439,13 +9438,13 @@
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
       <c r="X44" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y44" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z44" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA44" s="19">
         <v>2024</v>
@@ -9476,10 +9475,10 @@
     </row>
     <row r="45" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -9503,13 +9502,13 @@
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y45" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Z45" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA45" s="19">
         <v>2023</v>
@@ -9540,10 +9539,10 @@
     </row>
     <row r="46" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -9567,13 +9566,13 @@
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
       <c r="X46" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y46" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA46" s="19">
         <v>2023</v>
@@ -9604,10 +9603,10 @@
     </row>
     <row r="47" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -9631,15 +9630,15 @@
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
       <c r="X47" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y47" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z47" s="19"/>
       <c r="AA47" s="19"/>
       <c r="AB47" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AC47" s="19">
         <v>1</v>
@@ -9666,10 +9665,10 @@
     </row>
     <row r="48" spans="1:42" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -9693,19 +9692,19 @@
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
       <c r="X48" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y48" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z48" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA48" s="19">
         <v>2023</v>
       </c>
       <c r="AB48" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AC48" s="19">
         <v>1</v>
@@ -9732,16 +9731,16 @@
     </row>
     <row r="49" spans="1:42" ht="135.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" s="7">
         <v>13</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>19</v>
@@ -9750,28 +9749,28 @@
         <v>15000</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
@@ -9799,13 +9798,13 @@
       </c>
       <c r="W49" s="7"/>
       <c r="X49" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y49" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Z49" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA49" s="7">
         <v>2025</v>
@@ -9836,10 +9835,10 @@
     </row>
     <row r="50" spans="1:42" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -9863,15 +9862,15 @@
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
       <c r="X50" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC50" s="15">
         <v>2</v>
@@ -9880,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF50" s="15"/>
       <c r="AG50" s="15"/>
@@ -9900,16 +9899,16 @@
     </row>
     <row r="51" spans="1:42" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>19</v>
@@ -9918,29 +9917,29 @@
         <v>5000</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I51" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="L51" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9">
@@ -9958,16 +9957,16 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X51" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y51" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Z51" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA51" s="9">
         <v>2024</v>
@@ -9998,16 +9997,16 @@
     </row>
     <row r="52" spans="1:42" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>19</v>
@@ -10016,21 +10015,23 @@
         <v>9999</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="H52" s="11"/>
+        <v>316</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I52" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P52" s="11"/>
       <c r="Q52" s="11">
@@ -10048,16 +10049,16 @@
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X52" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y52" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z52" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
@@ -10084,16 +10085,16 @@
     </row>
     <row r="53" spans="1:42" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="13">
         <v>13</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>19</v>
@@ -10102,34 +10103,34 @@
         <v>15000</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P53" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="M53" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="N53" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="O53" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="P53" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="Q53" s="13">
         <v>0</v>
@@ -10176,16 +10177,16 @@
     </row>
     <row r="54" spans="1:42" ht="240.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C54" s="3">
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>48</v>
@@ -10194,7 +10195,7 @@
         <v>240624</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>54</v>
@@ -10209,16 +10210,16 @@
         <v>50</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>55</v>
@@ -10243,13 +10244,13 @@
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA54" s="3">
         <v>2025</v>
@@ -10263,25 +10264,25 @@
       </c>
       <c r="AE54" s="3"/>
       <c r="AF54" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG54" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AI54" s="3">
         <v>2021</v>
       </c>
       <c r="AJ54" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AK54" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL54" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM54" s="4">
         <v>1000</v>
@@ -10296,10 +10297,10 @@
     </row>
     <row r="55" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -10323,13 +10324,13 @@
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
       <c r="X55" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y55" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Z55" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA55" s="18"/>
       <c r="AB55" s="18"/>
@@ -10337,31 +10338,31 @@
       <c r="AD55" s="18"/>
       <c r="AE55" s="18"/>
       <c r="AF55" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG55" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH55" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AI55" s="18">
         <v>2021</v>
       </c>
       <c r="AJ55" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AK55" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL55" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM55" s="22">
         <v>500</v>
       </c>
       <c r="AN55" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AO55" s="18">
         <v>43.1</v>
@@ -10372,10 +10373,10 @@
     </row>
     <row r="56" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -10399,13 +10400,13 @@
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
       <c r="X56" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y56" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Z56" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA56" s="18"/>
       <c r="AB56" s="18"/>
@@ -10413,31 +10414,31 @@
       <c r="AD56" s="18"/>
       <c r="AE56" s="18"/>
       <c r="AF56" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG56" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH56" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AI56" s="18">
         <v>2022</v>
       </c>
       <c r="AJ56" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK56" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL56" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="AK56" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL56" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="AM56" s="22">
         <v>4965</v>
       </c>
       <c r="AN56" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AO56" s="18">
         <v>43.2</v>
@@ -10448,10 +10449,10 @@
     </row>
     <row r="57" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -10475,13 +10476,13 @@
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y57" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Z57" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
@@ -10489,31 +10490,31 @@
       <c r="AD57" s="18"/>
       <c r="AE57" s="18"/>
       <c r="AF57" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG57" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH57" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AI57" s="18">
         <v>2023</v>
       </c>
       <c r="AJ57" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK57" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL57" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM57" s="22">
         <v>500</v>
       </c>
       <c r="AN57" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AO57" s="18">
         <v>43.3</v>
@@ -10524,10 +10525,10 @@
     </row>
     <row r="58" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -10551,13 +10552,13 @@
       <c r="V58" s="18"/>
       <c r="W58" s="18"/>
       <c r="X58" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y58" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z58" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AA58" s="18">
         <v>2024</v>
@@ -10571,31 +10572,31 @@
       </c>
       <c r="AE58" s="18"/>
       <c r="AF58" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG58" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AH58" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AI58" s="18">
         <v>2024</v>
       </c>
       <c r="AJ58" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK58" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL58" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="AK58" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL58" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="AM58" s="22">
         <v>250</v>
       </c>
       <c r="AN58" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO58" s="18">
         <v>43.4</v>
@@ -10606,10 +10607,10 @@
     </row>
     <row r="59" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -10633,13 +10634,13 @@
       <c r="V59" s="18"/>
       <c r="W59" s="18"/>
       <c r="X59" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y59" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z59" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA59" s="18">
         <v>2024</v>
@@ -10650,30 +10651,30 @@
       </c>
       <c r="AD59" s="18"/>
       <c r="AE59" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF59" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG59" s="18"/>
       <c r="AH59" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AI59" s="18">
         <v>2024</v>
       </c>
       <c r="AJ59" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK59" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL59" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM59" s="22"/>
       <c r="AN59" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AO59" s="18">
         <v>43.5</v>
@@ -10684,10 +10685,10 @@
     </row>
     <row r="60" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -10711,13 +10712,13 @@
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y60" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Z60" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AA60" s="18">
         <v>2024</v>
@@ -10728,26 +10729,26 @@
       </c>
       <c r="AD60" s="18"/>
       <c r="AE60" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF60" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG60" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH60" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AI60" s="18">
         <v>2024</v>
       </c>
       <c r="AJ60" s="18"/>
       <c r="AK60" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL60" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AM60" s="22"/>
       <c r="AN60" s="18"/>
@@ -10760,10 +10761,10 @@
     </row>
     <row r="61" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -10787,13 +10788,13 @@
       <c r="V61" s="18"/>
       <c r="W61" s="18"/>
       <c r="X61" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y61" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Z61" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA61" s="18">
         <v>2023</v>
@@ -10804,7 +10805,7 @@
       </c>
       <c r="AD61" s="18"/>
       <c r="AE61" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF61" s="18"/>
       <c r="AG61" s="18"/>
@@ -10823,6 +10824,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP61">
+    <sortCondition ref="AO2:AO61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/data/Sample Data.xlsx
+++ b/data/Sample Data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleza\Documents\IWRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleza\GitHub\iwrc-reports-dataviz-01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71EBC6C-F351-4ACE-97A3-5B7D4E5BE544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76502CC4-799E-4465-A124-BE00D83AB71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" activeTab="2" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
   </bookViews>
   <sheets>
-    <sheet name="project_data" sheetId="3" r:id="rId1"/>
-    <sheet name="product_data" sheetId="4" r:id="rId2"/>
-    <sheet name="award_data" sheetId="5" r:id="rId3"/>
+    <sheet name="projects_data" sheetId="3" r:id="rId1"/>
+    <sheet name="products_data" sheetId="4" r:id="rId2"/>
+    <sheet name="awards_data" sheetId="5" r:id="rId3"/>
     <sheet name="sample_data" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="289">
   <si>
     <t>Sheet ID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>PI Affiliated Organization</t>
   </si>
   <si>
-    <t>Undegraduates Supported by WRRA $</t>
-  </si>
-  <si>
     <t>Masters Students Supported by WRRA $</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Brian Deal</t>
   </si>
   <si>
-    <t>University of Illinois</t>
-  </si>
-  <si>
     <t>IL-2022_Sankaran</t>
   </si>
   <si>
@@ -374,9 +368,6 @@
     <t>Jung Hyun Park</t>
   </si>
   <si>
-    <t>Illinois Sustainable Technology Center</t>
-  </si>
-  <si>
     <t>IL_2023_Su</t>
   </si>
   <si>
@@ -909,6 +900,12 @@
   </si>
   <si>
     <t>USEPA</t>
+  </si>
+  <si>
+    <t>Undergraduates Supported by WRRA $</t>
+  </si>
+  <si>
+    <t>Basil's Harvest</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B66F19-B46A-4E69-A613-FE882F1044E4}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,25 +1562,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1591,34 +1588,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="5">
         <v>10000</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -1647,34 +1644,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7">
         <v>10000</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="L3" s="6">
         <v>1</v>
@@ -1703,34 +1700,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9">
         <v>20000</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="L4" s="8">
         <v>1</v>
@@ -1759,33 +1756,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11">
         <v>10000</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="L5" s="10">
         <v>1</v>
       </c>
@@ -1813,34 +1812,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="15">
         <v>15000</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
@@ -1869,34 +1868,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="E7" s="17">
         <v>300000</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="I7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="L7" s="16">
         <v>7</v>
@@ -1925,33 +1924,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5">
         <v>10000</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
@@ -1979,34 +1980,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
         <v>15000</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="K9" s="6" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -2035,34 +2036,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9">
         <v>15000</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
@@ -2091,34 +2092,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E11" s="11">
         <v>200000</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="10">
         <v>0</v>
@@ -2147,33 +2148,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="15">
         <v>10000</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="14"/>
+        <v>136</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="L12" s="14">
         <v>0</v>
       </c>
@@ -2201,34 +2204,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="17">
         <v>238013</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="16">
         <v>1</v>
@@ -2257,34 +2260,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5">
         <v>15000</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -2313,34 +2316,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7">
         <v>9700</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L15" s="6">
         <v>1</v>
@@ -2369,34 +2372,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9">
         <v>14998</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L16" s="8">
         <v>3</v>
@@ -2425,33 +2428,35 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="11">
         <v>9500</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="L17" s="10">
         <v>0</v>
       </c>
@@ -2479,34 +2484,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="15">
         <v>122318</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
@@ -2535,34 +2540,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="17">
         <v>15141</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="L19" s="16">
         <v>0</v>
@@ -2591,32 +2596,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5">
         <v>9988</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L20" s="4">
         <v>2</v>
@@ -2645,34 +2650,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="7">
         <v>10000</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -2701,34 +2706,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="9">
         <v>10000</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L22" s="8">
         <v>0</v>
@@ -2757,34 +2762,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E23" s="11">
         <v>250000</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" s="10">
         <v>2</v>
@@ -2813,34 +2818,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E24" s="15">
         <v>200000</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L24" s="14">
         <v>0</v>
@@ -2869,34 +2874,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="17">
         <v>15000</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L25" s="16">
         <v>0</v>
@@ -2925,33 +2930,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="5">
         <v>5000</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="L26" s="4">
         <v>0</v>
       </c>
@@ -2979,34 +2986,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="7">
         <v>10000</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="J27" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -3035,27 +3042,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="9">
         <v>9999</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="K28" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="L28" s="8">
         <v>0</v>
       </c>
@@ -3079,34 +3088,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="11">
         <v>15000</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L29" s="10">
         <v>0</v>
@@ -3135,34 +3144,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="15">
         <v>9887</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L30" s="14">
         <v>0</v>
@@ -3191,34 +3200,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="17">
         <v>240624</v>
       </c>
       <c r="F31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="J31" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L31" s="16">
         <v>2</v>
@@ -3263,6 +3272,9 @@
       <c r="R32" s="34"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R31">
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3303,28 +3315,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3332,16 +3344,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8">
         <v>2023</v>
@@ -3365,16 +3377,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -3396,16 +3408,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3427,16 +3439,16 @@
         <v>4.2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -3458,16 +3470,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="14">
         <v>2025</v>
@@ -3491,20 +3503,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H7" s="16">
         <v>2</v>
@@ -3524,20 +3536,20 @@
         <v>6.1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H8" s="18">
         <v>2</v>
@@ -3557,20 +3569,20 @@
         <v>6.2</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="20">
         <v>3</v>
@@ -3590,16 +3602,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3619,16 +3631,16 @@
         <v>7.1</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -3648,16 +3660,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F12" s="8">
         <v>2025</v>
@@ -3681,16 +3693,16 @@
         <v>9.1</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F13" s="24">
         <v>2024</v>
@@ -3714,16 +3726,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" s="10">
         <v>2024</v>
@@ -3747,20 +3759,20 @@
         <v>10.1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H15" s="12">
         <v>1</v>
@@ -3780,20 +3792,20 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="26">
         <v>1</v>
@@ -3813,18 +3825,18 @@
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -3844,16 +3856,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="F18" s="16">
         <v>2024</v>
@@ -3877,16 +3889,16 @@
         <v>12.1</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="F19" s="18">
         <v>2025</v>
@@ -3910,16 +3922,16 @@
         <v>12.2</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F20" s="18">
         <v>2023</v>
@@ -3943,16 +3955,16 @@
         <v>12.3</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="F21" s="18">
         <v>2022</v>
@@ -3976,22 +3988,22 @@
         <v>12.4</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="18">
         <v>2024</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="18">
         <v>1</v>
@@ -4011,20 +4023,20 @@
         <v>12.5</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="18">
         <v>1</v>
@@ -4044,20 +4056,20 @@
         <v>12.6</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="20">
         <v>1</v>
@@ -4077,16 +4089,16 @@
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F25" s="4">
         <v>2025</v>
@@ -4110,20 +4122,20 @@
         <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6">
         <v>2023</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -4143,16 +4155,16 @@
         <v>15</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="F27" s="8">
         <v>2025</v>
@@ -4176,18 +4188,18 @@
         <v>16</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H28" s="10">
         <v>1</v>
@@ -4205,18 +4217,18 @@
         <v>17</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -4232,18 +4244,18 @@
         <v>18</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H30" s="16">
         <v>3</v>
@@ -4263,18 +4275,18 @@
         <v>20</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -4290,18 +4302,18 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -4317,16 +4329,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="F33" s="10">
         <v>2025</v>
@@ -4350,20 +4362,20 @@
         <v>22.1</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H34" s="12">
         <v>2</v>
@@ -4383,16 +4395,16 @@
         <v>22.2</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F35" s="30">
         <v>2022</v>
@@ -4416,16 +4428,16 @@
         <v>23</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="F36" s="14">
         <v>2025</v>
@@ -4449,16 +4461,16 @@
         <v>23.1</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="F37" s="32">
         <v>2025</v>
@@ -4482,16 +4494,16 @@
         <v>23.2</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F38" s="32">
         <v>2025</v>
@@ -4515,16 +4527,16 @@
         <v>23.3</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F39" s="32">
         <v>2023</v>
@@ -4548,16 +4560,16 @@
         <v>23.4</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F40" s="32">
         <v>2024</v>
@@ -4581,16 +4593,16 @@
         <v>23.5</v>
       </c>
       <c r="B41" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>218</v>
       </c>
       <c r="F41" s="32">
         <v>2024</v>
@@ -4614,16 +4626,16 @@
         <v>23.6</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F42" s="32">
         <v>2023</v>
@@ -4647,16 +4659,16 @@
         <v>23.7</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F43" s="32">
         <v>2023</v>
@@ -4680,22 +4692,22 @@
         <v>23.8</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F44" s="32">
         <v>2023</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H44" s="32">
         <v>1</v>
@@ -4715,20 +4727,20 @@
         <v>23.9</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H45" s="32">
         <v>1</v>
@@ -4748,16 +4760,16 @@
         <v>24</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>226</v>
       </c>
       <c r="F46" s="16">
         <v>2025</v>
@@ -4781,20 +4793,20 @@
         <v>24.1</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H47" s="18">
         <v>2</v>
@@ -4814,16 +4826,16 @@
         <v>25</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F48" s="4">
         <v>2024</v>
@@ -4847,16 +4859,16 @@
         <v>27</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -4876,16 +4888,16 @@
         <v>30</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="F50" s="16">
         <v>2025</v>
@@ -4909,16 +4921,16 @@
         <v>30.1</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -4936,16 +4948,16 @@
         <v>30.2</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -4963,16 +4975,16 @@
         <v>30.3</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -4990,16 +5002,16 @@
         <v>30.4</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F54" s="18">
         <v>2024</v>
@@ -5023,16 +5035,16 @@
         <v>30.5</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F55" s="18">
         <v>2024</v>
@@ -5054,16 +5066,16 @@
         <v>30.6</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F56" s="18">
         <v>2024</v>
@@ -5085,16 +5097,16 @@
         <v>30.7</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F57" s="18">
         <v>2023</v>
@@ -5136,7 +5148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AAC0B-2A61-41FE-87B3-77F22BDFF7F8}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5173,40 +5185,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5214,28 +5226,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="4">
         <v>2022</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -5243,7 +5255,7 @@
         <v>250000</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N2" s="4">
         <v>10</v>
@@ -5257,28 +5269,28 @@
         <v>7.1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" s="22">
         <v>2022</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -5298,31 +5310,31 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" s="8">
         <v>2024</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
@@ -5339,38 +5351,38 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G5" s="6">
         <v>2023</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7">
         <v>6000</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N5" s="6">
         <v>13</v>
@@ -5384,31 +5396,31 @@
         <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G6" s="10">
         <v>2024</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="11">
@@ -5427,29 +5439,29 @@
         <v>29</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G7" s="14">
         <v>2021</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="15">
@@ -5468,29 +5480,29 @@
         <v>29.1</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>251</v>
-      </c>
       <c r="F8" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8" s="32">
         <v>2021</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="33"/>
@@ -5507,38 +5519,38 @@
         <v>30</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>261</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G9" s="16">
         <v>2024</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="17">
         <v>250</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N9" s="16">
         <v>49</v>
@@ -5552,34 +5564,34 @@
         <v>30.1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G10" s="18">
         <v>2024</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="19"/>
       <c r="M10" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N10" s="18">
         <v>49.1</v>
@@ -5593,29 +5605,29 @@
         <v>30.2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G11" s="18">
         <v>2024</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="19"/>
@@ -5632,10 +5644,10 @@
         <v>30.3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -5659,31 +5671,31 @@
         <v>30.4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G13" s="18">
         <v>2021</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="19">
@@ -5702,38 +5714,38 @@
         <v>30.5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G14" s="18">
         <v>2021</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="19">
         <v>500</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N14" s="18">
         <v>32.1</v>
@@ -5747,38 +5759,38 @@
         <v>30.6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G15" s="18">
         <v>2022</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="19">
         <v>4965</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N15" s="18">
         <v>32.200000000000003</v>
@@ -5792,38 +5804,38 @@
         <v>30.7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G16" s="18">
         <v>2023</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="19">
         <v>500</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N16" s="18">
         <v>32.299999999999997</v>
@@ -5859,10 +5871,10 @@
   <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5931,73 +5943,73 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6005,34 +6017,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="5">
         <v>10000</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -6077,34 +6089,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7">
         <v>10000</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="L3" s="6">
         <v>1</v>
@@ -6149,34 +6161,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9">
         <v>20000</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="L4" s="8">
         <v>1</v>
@@ -6194,10 +6206,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S4" s="8">
         <v>2023</v>
@@ -6231,53 +6243,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11">
         <v>10000</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6309,10 +6323,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -6328,10 +6342,10 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
@@ -6363,10 +6377,10 @@
         <v>4.2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
@@ -6382,10 +6396,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -6417,55 +6431,55 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="15">
         <v>15000</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <v>1</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="S8" s="14">
         <v>2025</v>
@@ -6499,34 +6513,34 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="E9" s="17">
         <v>300000</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="I9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="L9" s="16">
         <v>7</v>
@@ -6544,14 +6558,14 @@
         <v>1</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U9" s="16">
         <v>2</v>
@@ -6581,10 +6595,10 @@
         <v>6.1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
@@ -6600,14 +6614,14 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U10" s="18">
         <v>2</v>
@@ -6637,10 +6651,10 @@
         <v>6.2</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
@@ -6656,14 +6670,14 @@
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S11" s="20"/>
       <c r="T11" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U11" s="20">
         <v>3</v>
@@ -6693,53 +6707,55 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5">
         <v>10000</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -6748,22 +6764,22 @@
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z12" s="4">
         <v>2022</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -6771,7 +6787,7 @@
         <v>250000</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG12" s="4">
         <v>10</v>
@@ -6785,10 +6801,10 @@
         <v>7.1</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -6804,10 +6820,10 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -6816,22 +6832,22 @@
       </c>
       <c r="V13" s="22"/>
       <c r="W13" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X13" s="22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Y13" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Z13" s="22">
         <v>2022</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB13" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC13" s="22"/>
       <c r="AD13" s="22"/>
@@ -6851,34 +6867,34 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7">
         <v>15000</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="K14" s="6" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="L14" s="6">
         <v>1</v>
@@ -6923,55 +6939,55 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="9">
         <v>15000</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="K15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="S15" s="8">
         <v>2025</v>
@@ -6984,25 +7000,25 @@
         <v>0</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Z15" s="8">
         <v>2024</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD15" s="8"/>
       <c r="AE15" s="9"/>
@@ -7019,10 +7035,10 @@
         <v>9.1</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
@@ -7038,10 +7054,10 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S16" s="24">
         <v>2024</v>
@@ -7075,55 +7091,55 @@
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E17" s="11">
         <v>200000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="R17" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="S17" s="10">
         <v>2024</v>
@@ -7157,10 +7173,10 @@
         <v>10.1</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
@@ -7176,14 +7192,14 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="S18" s="12"/>
       <c r="T18" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U18" s="12">
         <v>1</v>
@@ -7213,10 +7229,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
@@ -7232,14 +7248,14 @@
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R19" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S19" s="26"/>
       <c r="T19" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U19" s="26">
         <v>1</v>
@@ -7269,33 +7285,35 @@
         <v>11</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="15">
         <v>10000</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="14"/>
+        <v>136</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="L20" s="14">
         <v>0</v>
       </c>
@@ -7312,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
@@ -7345,34 +7363,34 @@
         <v>12</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" s="17">
         <v>238013</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L21" s="16">
         <v>1</v>
@@ -7390,10 +7408,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S21" s="16">
         <v>2024</v>
@@ -7427,10 +7445,10 @@
         <v>12.1</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
@@ -7446,10 +7464,10 @@
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S22" s="18">
         <v>2025</v>
@@ -7483,10 +7501,10 @@
         <v>12.2</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
@@ -7502,10 +7520,10 @@
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S23" s="18">
         <v>2023</v>
@@ -7539,10 +7557,10 @@
         <v>12.3</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="19"/>
@@ -7558,10 +7576,10 @@
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S24" s="18">
         <v>2022</v>
@@ -7595,10 +7613,10 @@
         <v>12.4</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="19"/>
@@ -7614,16 +7632,16 @@
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S25" s="18">
         <v>2024</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U25" s="18">
         <v>1</v>
@@ -7653,10 +7671,10 @@
         <v>12.5</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="19"/>
@@ -7672,14 +7690,14 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S26" s="18"/>
       <c r="T26" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U26" s="18">
         <v>1</v>
@@ -7709,10 +7727,10 @@
         <v>12.6</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
@@ -7728,14 +7746,14 @@
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S27" s="20"/>
       <c r="T27" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U27" s="20">
         <v>1</v>
@@ -7765,35 +7783,35 @@
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="5">
         <v>15000</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="L28" s="4">
         <v>0</v>
       </c>
@@ -7810,10 +7828,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S28" s="4">
         <v>2025</v>
@@ -7847,34 +7865,34 @@
         <v>14</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="7">
         <v>9700</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L29" s="6">
         <v>1</v>
@@ -7892,14 +7910,14 @@
         <v>0</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6">
         <v>2023</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U29" s="6">
         <v>0</v>
@@ -7908,32 +7926,32 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Y29" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z29" s="6">
         <v>2023</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD29" s="6"/>
       <c r="AE29" s="7">
         <v>6000</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG29" s="6">
         <v>13</v>
@@ -7947,34 +7965,34 @@
         <v>15</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="9">
         <v>14998</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L30" s="8">
         <v>3</v>
@@ -7992,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S30" s="8">
         <v>2025</v>
@@ -8029,33 +8047,35 @@
         <v>16</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="11">
         <v>9500</v>
       </c>
       <c r="F31" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="L31" s="10">
         <v>0</v>
       </c>
@@ -8072,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
@@ -8103,34 +8123,34 @@
         <v>17</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="15">
         <v>122318</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L32" s="14">
         <v>0</v>
@@ -8148,12 +8168,12 @@
         <v>0</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
@@ -8179,34 +8199,34 @@
         <v>18</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="17">
         <v>15141</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H33" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K33" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="L33" s="16">
         <v>0</v>
@@ -8224,12 +8244,12 @@
         <v>4</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U33" s="16">
         <v>3</v>
@@ -8259,32 +8279,32 @@
         <v>19</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="5">
         <v>9988</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L34" s="4">
         <v>2</v>
@@ -8329,34 +8349,34 @@
         <v>20</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="7">
         <v>10000</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -8374,12 +8394,12 @@
         <v>0</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -8405,10 +8425,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
@@ -8424,12 +8444,12 @@
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
       <c r="T36" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U36" s="28"/>
       <c r="V36" s="28"/>
@@ -8455,34 +8475,34 @@
         <v>21</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="9">
         <v>10000</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L37" s="8">
         <v>0</v>
@@ -8527,34 +8547,34 @@
         <v>22</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E38" s="11">
         <v>250000</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L38" s="10">
         <v>2</v>
@@ -8572,10 +8592,10 @@
         <v>2</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S38" s="10">
         <v>2025</v>
@@ -8588,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Z38" s="10">
         <v>2024</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD38" s="10"/>
       <c r="AE38" s="11">
@@ -8625,10 +8645,10 @@
         <v>22.1</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="13"/>
@@ -8644,14 +8664,14 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S39" s="12"/>
       <c r="T39" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="U39" s="12">
         <v>2</v>
@@ -8681,10 +8701,10 @@
         <v>22.2</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
@@ -8700,10 +8720,10 @@
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R40" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S40" s="30">
         <v>2022</v>
@@ -8737,34 +8757,34 @@
         <v>23</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E41" s="15">
         <v>200000</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L41" s="14">
         <v>0</v>
@@ -8782,10 +8802,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R41" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S41" s="14">
         <v>2025</v>
@@ -8819,10 +8839,10 @@
         <v>23.1</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
@@ -8838,10 +8858,10 @@
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R42" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S42" s="32">
         <v>2025</v>
@@ -8875,10 +8895,10 @@
         <v>23.2</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
@@ -8894,10 +8914,10 @@
       <c r="O43" s="32"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R43" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S43" s="32">
         <v>2025</v>
@@ -8931,10 +8951,10 @@
         <v>23.3</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
@@ -8950,10 +8970,10 @@
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R44" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S44" s="32">
         <v>2023</v>
@@ -8987,10 +9007,10 @@
         <v>23.4</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
@@ -9006,10 +9026,10 @@
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R45" s="32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S45" s="32">
         <v>2024</v>
@@ -9043,10 +9063,10 @@
         <v>23.5</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="33"/>
@@ -9062,10 +9082,10 @@
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R46" s="32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S46" s="32">
         <v>2024</v>
@@ -9099,10 +9119,10 @@
         <v>23.6</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
@@ -9118,10 +9138,10 @@
       <c r="O47" s="32"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R47" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S47" s="32">
         <v>2023</v>
@@ -9155,10 +9175,10 @@
         <v>23.7</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="33"/>
@@ -9174,10 +9194,10 @@
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R48" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S48" s="32">
         <v>2023</v>
@@ -9211,10 +9231,10 @@
         <v>23.8</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
@@ -9230,16 +9250,16 @@
       <c r="O49" s="32"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R49" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S49" s="32">
         <v>2023</v>
       </c>
       <c r="T49" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U49" s="32">
         <v>1</v>
@@ -9269,10 +9289,10 @@
         <v>23.9</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="33"/>
@@ -9288,14 +9308,14 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R50" s="32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S50" s="32"/>
       <c r="T50" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U50" s="32">
         <v>1</v>
@@ -9325,34 +9345,34 @@
         <v>24</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E51" s="17">
         <v>15000</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L51" s="16">
         <v>0</v>
@@ -9370,10 +9390,10 @@
         <v>1</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S51" s="16">
         <v>2025</v>
@@ -9407,10 +9427,10 @@
         <v>24.1</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="19"/>
@@ -9426,14 +9446,14 @@
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R52" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S52" s="18"/>
       <c r="T52" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U52" s="18">
         <v>2</v>
@@ -9463,53 +9483,55 @@
         <v>25</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E53" s="5">
         <v>5000</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="K53" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R53" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="4">
-        <v>0</v>
-      </c>
-      <c r="O53" s="4">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="S53" s="4">
         <v>2024</v>
@@ -9543,34 +9565,34 @@
         <v>26</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E54" s="7">
         <v>10000</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="J54" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -9615,27 +9637,29 @@
         <v>27</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E55" s="9">
         <v>9999</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="K55" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="L55" s="8">
         <v>0</v>
       </c>
@@ -9648,10 +9672,10 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
@@ -9681,34 +9705,34 @@
         <v>28</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E56" s="11">
         <v>15000</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L56" s="10">
         <v>0</v>
@@ -9753,34 +9777,34 @@
         <v>29</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="15">
         <v>9887</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L57" s="14">
         <v>0</v>
@@ -9804,23 +9828,23 @@
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
       <c r="W57" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X57" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Y57" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Z57" s="14">
         <v>2021</v>
       </c>
       <c r="AA57" s="14"/>
       <c r="AB57" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AC57" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="15">
@@ -9839,10 +9863,10 @@
         <v>29.1</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="33"/>
@@ -9864,23 +9888,23 @@
       <c r="U58" s="32"/>
       <c r="V58" s="32"/>
       <c r="W58" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X58" s="32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Y58" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z58" s="32">
         <v>2021</v>
       </c>
       <c r="AA58" s="32"/>
       <c r="AB58" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AC58" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD58" s="32"/>
       <c r="AE58" s="33"/>
@@ -9897,34 +9921,34 @@
         <v>30</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E59" s="17">
         <v>240624</v>
       </c>
       <c r="F59" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I59" s="16" t="s">
+      <c r="J59" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="K59" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="L59" s="16">
         <v>2</v>
@@ -9942,10 +9966,10 @@
         <v>1</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S59" s="16">
         <v>2025</v>
@@ -9958,32 +9982,32 @@
         <v>0</v>
       </c>
       <c r="W59" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X59" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Y59" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z59" s="16">
         <v>2024</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB59" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC59" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD59" s="16"/>
       <c r="AE59" s="17">
         <v>250</v>
       </c>
       <c r="AF59" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AG59" s="16">
         <v>49</v>
@@ -9997,10 +10021,10 @@
         <v>30.1</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="19"/>
@@ -10016,38 +10040,38 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
       <c r="Q60" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S60" s="18"/>
       <c r="T60" s="18"/>
       <c r="U60" s="18"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X60" s="18"/>
       <c r="Y60" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Z60" s="18">
         <v>2024</v>
       </c>
       <c r="AA60" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AB60" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC60" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD60" s="18"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG60" s="18">
         <v>49.1</v>
@@ -10061,10 +10085,10 @@
         <v>30.2</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
@@ -10080,33 +10104,33 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
       <c r="Q61" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
       <c r="U61" s="18"/>
       <c r="V61" s="18"/>
       <c r="W61" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X61" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Y61" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Z61" s="18">
         <v>2024</v>
       </c>
       <c r="AA61" s="18"/>
       <c r="AB61" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AC61" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD61" s="18"/>
       <c r="AE61" s="19"/>
@@ -10123,10 +10147,10 @@
         <v>30.3</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
@@ -10142,10 +10166,10 @@
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
       <c r="Q62" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S62" s="18"/>
       <c r="T62" s="18"/>
@@ -10173,10 +10197,10 @@
         <v>30.4</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
@@ -10192,10 +10216,10 @@
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
       <c r="Q63" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S63" s="18">
         <v>2024</v>
@@ -10208,25 +10232,25 @@
         <v>1</v>
       </c>
       <c r="W63" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X63" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y63" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z63" s="18">
         <v>2021</v>
       </c>
       <c r="AA63" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AB63" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC63" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD63" s="18"/>
       <c r="AE63" s="19">
@@ -10245,10 +10269,10 @@
         <v>30.5</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
@@ -10264,10 +10288,10 @@
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
       <c r="Q64" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R64" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S64" s="18">
         <v>2024</v>
@@ -10278,32 +10302,32 @@
       </c>
       <c r="V64" s="18"/>
       <c r="W64" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X64" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Y64" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Z64" s="18">
         <v>2021</v>
       </c>
       <c r="AA64" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AB64" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC64" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD64" s="18"/>
       <c r="AE64" s="19">
         <v>500</v>
       </c>
       <c r="AF64" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG64" s="18">
         <v>32.1</v>
@@ -10317,10 +10341,10 @@
         <v>30.6</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="19"/>
@@ -10336,10 +10360,10 @@
       <c r="O65" s="18"/>
       <c r="P65" s="18"/>
       <c r="Q65" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S65" s="18">
         <v>2024</v>
@@ -10350,32 +10374,32 @@
       </c>
       <c r="V65" s="18"/>
       <c r="W65" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X65" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Y65" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Z65" s="18">
         <v>2022</v>
       </c>
       <c r="AA65" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB65" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC65" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD65" s="18"/>
       <c r="AE65" s="19">
         <v>4965</v>
       </c>
       <c r="AF65" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG65" s="18">
         <v>32.200000000000003</v>
@@ -10389,10 +10413,10 @@
         <v>30.7</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="19"/>
@@ -10408,10 +10432,10 @@
       <c r="O66" s="18"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R66" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S66" s="18">
         <v>2023</v>
@@ -10422,32 +10446,32 @@
       </c>
       <c r="V66" s="18"/>
       <c r="W66" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X66" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Y66" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Z66" s="18">
         <v>2023</v>
       </c>
       <c r="AA66" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AB66" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC66" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AD66" s="18"/>
       <c r="AE66" s="19">
         <v>500</v>
       </c>
       <c r="AF66" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG66" s="18">
         <v>32.299999999999997</v>
@@ -10493,6 +10517,9 @@
       <c r="AH67" s="34"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH66">
+    <sortCondition ref="A2:A66"/>
+  </sortState>
   <conditionalFormatting sqref="R1:R66">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/data/Sample Data.xlsx
+++ b/data/Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleza\GitHub\iwrc-reports-dataviz-01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76502CC4-799E-4465-A124-BE00D83AB71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD32E191-24F4-44FD-962E-B1355DF65AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" activeTab="3" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
   </bookViews>
   <sheets>
     <sheet name="projects_data" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="282">
   <si>
     <t>Sheet ID</t>
   </si>
@@ -716,27 +716,9 @@
     <t>Nugent, Jenni, Aaron Leshuk-Morita, and Ashlynn S. Stillwell. (2025). Historical drought impacts on hydroelectric generation and virtual water transfers. In preparation.</t>
   </si>
   <si>
-    <t>IL_2021_Meyer</t>
-  </si>
-  <si>
-    <t>Regenerative Agriculture and the Human Health Nexus in the age of Climate Change</t>
-  </si>
-  <si>
     <t>AGRICULTURE</t>
   </si>
   <si>
-    <t>EDUCATION</t>
-  </si>
-  <si>
-    <t>METHODS</t>
-  </si>
-  <si>
-    <t>Erin Meyer</t>
-  </si>
-  <si>
-    <t>Davendra Ramkumar, Aileen Marty, Japhia Ramkumar, Holly Rosencranz, Radhika Vedantham, Modan Goldman, Erin Meyer, Jasia Steinmetz, Amy Weckle, Kelly Bloedorn, and Carl Rosier. Food for thought: Making the case for food produced via regenerative agriculture in the battle against non-communicable chronic diseases (NCDs). One Health, 18 (2024), 100734.</t>
-  </si>
-  <si>
     <t>2020IL215B</t>
   </si>
   <si>
@@ -770,9 +752,6 @@
     <t>John J Sloan</t>
   </si>
   <si>
-    <t>National Great Rivers Research &amp; Education Center</t>
-  </si>
-  <si>
     <t>2020IL218B</t>
   </si>
   <si>
@@ -905,7 +884,7 @@
     <t>Undergraduates Supported by WRRA $</t>
   </si>
   <si>
-    <t>Basil's Harvest</t>
+    <t>Lewis and Clark Community  College</t>
   </si>
 </sst>
 </file>
@@ -1502,13 +1481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B66F19-B46A-4E69-A613-FE882F1044E4}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -2925,355 +2904,299 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:18" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="I26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>4</v>
+      </c>
+      <c r="R26" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>34</v>
-      </c>
-      <c r="R26" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="E27" s="9">
+        <v>9999</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>2</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8">
+        <v>9</v>
+      </c>
+      <c r="R27" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="C28" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="E28" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>42</v>
+      </c>
+      <c r="R28" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="15">
+        <v>9887</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>5</v>
+      </c>
+      <c r="R29" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>30</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="17">
+        <v>240624</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>4</v>
-      </c>
-      <c r="R27" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="9">
-        <v>9999</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
+      <c r="L30" s="16">
         <v>2</v>
       </c>
-      <c r="N28" s="8">
-        <v>1</v>
-      </c>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8">
-        <v>9</v>
-      </c>
-      <c r="R28" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="11">
-        <v>15000</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>42</v>
-      </c>
-      <c r="R29" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="15">
-        <v>9887</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0</v>
-      </c>
-      <c r="M30" s="14">
-        <v>0</v>
-      </c>
-      <c r="N30" s="14">
-        <v>1</v>
-      </c>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
-      <c r="P30" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>5</v>
-      </c>
-      <c r="R30" s="14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>30</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="17">
-        <v>240624</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="16">
-        <v>2</v>
-      </c>
-      <c r="M31" s="16">
-        <v>1</v>
-      </c>
-      <c r="N31" s="16">
-        <v>0</v>
-      </c>
-      <c r="O31" s="16">
-        <v>0</v>
-      </c>
-      <c r="P31" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="16">
+      <c r="M30" s="16">
+        <v>1</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="16">
         <v>49</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R30" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
+    <row r="31" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R30">
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3281,13 +3204,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE845B4E-2ACE-4014-BF97-F0B69A5A404F}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4821,197 +4744,197 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>25</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="4" t="s">
+    <row r="48" spans="1:11" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>27</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2024</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4">
-        <v>2</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>34</v>
-      </c>
-      <c r="K48" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>27</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="E48" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8">
+        <v>3</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8">
+        <v>9</v>
+      </c>
+      <c r="K48" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>30</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8">
-        <v>3</v>
-      </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8">
-        <v>9</v>
-      </c>
-      <c r="K49" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
-        <v>30</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="16" t="s">
+      <c r="E49" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="16">
+        <v>2025</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16">
+        <v>1</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>49</v>
+      </c>
+      <c r="K49" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>30.1</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F50" s="16">
-        <v>2025</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16">
-        <v>1</v>
-      </c>
-      <c r="I50" s="16">
-        <v>0</v>
-      </c>
-      <c r="J50" s="16">
-        <v>49</v>
-      </c>
-      <c r="K50" s="16">
-        <v>46</v>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18">
+        <v>49.1</v>
+      </c>
+      <c r="K50" s="18">
+        <v>46.1</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="K51" s="18">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="K52" s="18">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" s="18"/>
+        <v>263</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2024</v>
+      </c>
       <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
+      <c r="H53" s="18">
+        <v>1</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1</v>
+      </c>
       <c r="J53" s="18">
-        <v>49.3</v>
+        <v>32</v>
       </c>
       <c r="K53" s="18">
-        <v>46.3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F54" s="18">
         <v>2024</v>
@@ -5020,31 +4943,29 @@
       <c r="H54" s="18">
         <v>1</v>
       </c>
-      <c r="I54" s="18">
-        <v>1</v>
-      </c>
+      <c r="I54" s="18"/>
       <c r="J54" s="18">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="K54" s="18">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F55" s="18">
         <v>2024</v>
@@ -5055,30 +4976,30 @@
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="18">
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="K55" s="18">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F56" s="18">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18">
@@ -5086,59 +5007,28 @@
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="18">
-        <v>32.200000000000003</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="K56" s="18">
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
-        <v>30.7</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="F57" s="18">
-        <v>2023</v>
-      </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18">
-        <v>1</v>
-      </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="K57" s="18">
         <v>47.3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
+    <row r="57" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E57">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  <conditionalFormatting sqref="E1:E56">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5235,7 +5125,7 @@
         <v>197</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>99</v>
@@ -5244,7 +5134,7 @@
         <v>2022</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>97</v>
@@ -5278,7 +5168,7 @@
         <v>197</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>102</v>
@@ -5439,26 +5329,26 @@
         <v>29</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G7" s="14">
         <v>2021</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>163</v>
@@ -5480,26 +5370,26 @@
         <v>29.1</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="E8" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>245</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>252</v>
       </c>
       <c r="G8" s="32">
         <v>2021</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J8" s="32" t="s">
         <v>163</v>
@@ -5519,19 +5409,19 @@
         <v>30</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>116</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G9" s="16">
         <v>2024</v>
@@ -5540,7 +5430,7 @@
         <v>161</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>163</v>
@@ -5550,7 +5440,7 @@
         <v>250</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="N9" s="16">
         <v>49</v>
@@ -5564,26 +5454,26 @@
         <v>30.1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G10" s="18">
         <v>2024</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>163</v>
@@ -5591,7 +5481,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="19"/>
       <c r="M10" s="18" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N10" s="18">
         <v>49.1</v>
@@ -5605,26 +5495,26 @@
         <v>30.2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G11" s="18">
         <v>2024</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>201</v>
@@ -5644,10 +5534,10 @@
         <v>30.3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -5671,28 +5561,28 @@
         <v>30.4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G13" s="18">
         <v>2021</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>163</v>
@@ -5714,28 +5604,28 @@
         <v>30.5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>197</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G14" s="18">
         <v>2021</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>163</v>
@@ -5745,7 +5635,7 @@
         <v>500</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N14" s="18">
         <v>32.1</v>
@@ -5759,19 +5649,19 @@
         <v>30.6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>197</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G15" s="18">
         <v>2022</v>
@@ -5780,7 +5670,7 @@
         <v>161</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>163</v>
@@ -5790,7 +5680,7 @@
         <v>4965</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N15" s="18">
         <v>32.200000000000003</v>
@@ -5804,28 +5694,28 @@
         <v>30.7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>197</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G16" s="18">
         <v>2023</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>163</v>
@@ -5835,7 +5725,7 @@
         <v>500</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N16" s="18">
         <v>32.299999999999997</v>
@@ -5868,13 +5758,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123E9A6A-0EE0-46E6-B907-518876E35B49}">
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AH66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,7 +5833,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -6767,7 +6657,7 @@
         <v>197</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>99</v>
@@ -6776,7 +6666,7 @@
         <v>2022</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AB12" s="4" t="s">
         <v>97</v>
@@ -6835,7 +6725,7 @@
         <v>197</v>
       </c>
       <c r="X13" s="22" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Y13" s="22" t="s">
         <v>102</v>
@@ -9478,553 +9368,535 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>25</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="53" spans="1:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>26</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="I53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH53" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>27</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="4">
-        <v>0</v>
-      </c>
-      <c r="O53" s="4">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4" t="s">
+      <c r="E54" s="9">
+        <v>9999</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8">
+        <v>2</v>
+      </c>
+      <c r="N54" s="8">
+        <v>1</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="R53" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="S53" s="4">
+      <c r="R54" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8">
+        <v>3</v>
+      </c>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8">
+        <v>9</v>
+      </c>
+      <c r="AH54" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>28</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L55" s="10">
+        <v>0</v>
+      </c>
+      <c r="M55" s="10">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10">
+        <v>0</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10">
+        <v>42</v>
+      </c>
+      <c r="AH55" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>29</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="15">
+        <v>9887</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L56" s="14">
+        <v>0</v>
+      </c>
+      <c r="M56" s="14">
+        <v>0</v>
+      </c>
+      <c r="N56" s="14">
+        <v>1</v>
+      </c>
+      <c r="O56" s="14">
+        <v>0</v>
+      </c>
+      <c r="P56" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="X56" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y56" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>2021</v>
+      </c>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC56" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="15">
+        <v>4500</v>
+      </c>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="32">
+        <v>29.1</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="X57" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y57" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z57" s="32">
+        <v>2021</v>
+      </c>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC57" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD57" s="32"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="32"/>
+      <c r="AG57" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH57" s="32">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>30</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="17">
+        <v>240624</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L58" s="16">
+        <v>2</v>
+      </c>
+      <c r="M58" s="16">
+        <v>1</v>
+      </c>
+      <c r="N58" s="16">
+        <v>0</v>
+      </c>
+      <c r="O58" s="16">
+        <v>0</v>
+      </c>
+      <c r="P58" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="S58" s="16">
+        <v>2025</v>
+      </c>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16">
+        <v>1</v>
+      </c>
+      <c r="V58" s="16">
+        <v>0</v>
+      </c>
+      <c r="W58" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="X58" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y58" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z58" s="16">
         <v>2024</v>
       </c>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4">
-        <v>2</v>
-      </c>
-      <c r="V53" s="4">
-        <v>0</v>
-      </c>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4">
-        <v>34</v>
-      </c>
-      <c r="AH53" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
-        <v>26</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>1</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH54" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>27</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="9">
-        <v>9999</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" s="8">
-        <v>0</v>
-      </c>
-      <c r="M55" s="8">
-        <v>2</v>
-      </c>
-      <c r="N55" s="8">
-        <v>1</v>
-      </c>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R55" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8">
-        <v>3</v>
-      </c>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8">
-        <v>9</v>
-      </c>
-      <c r="AH55" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
-        <v>28</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="11">
-        <v>15000</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="L56" s="10">
-        <v>0</v>
-      </c>
-      <c r="M56" s="10">
-        <v>0</v>
-      </c>
-      <c r="N56" s="10">
-        <v>0</v>
-      </c>
-      <c r="O56" s="10">
-        <v>0</v>
-      </c>
-      <c r="P56" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10">
-        <v>42</v>
-      </c>
-      <c r="AH56" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
-        <v>29</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="15">
-        <v>9887</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J57" s="14" t="s">
+      <c r="AA58" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC58" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="17">
+        <v>250</v>
+      </c>
+      <c r="AF58" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG58" s="16">
+        <v>49</v>
+      </c>
+      <c r="AH58" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>30.1</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="C59" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="L57" s="14">
-        <v>0</v>
-      </c>
-      <c r="M57" s="14">
-        <v>0</v>
-      </c>
-      <c r="N57" s="14">
-        <v>1</v>
-      </c>
-      <c r="O57" s="14">
-        <v>0</v>
-      </c>
-      <c r="P57" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14" t="s">
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="R59" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="X57" s="14" t="s">
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z59" s="18">
+        <v>2024</v>
+      </c>
+      <c r="AA59" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB59" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC59" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD59" s="18"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG59" s="18">
+        <v>49.1</v>
+      </c>
+      <c r="AH59" s="18">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>30.2</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="Y57" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z57" s="14">
-        <v>2021</v>
-      </c>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC57" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="15">
-        <v>4500</v>
-      </c>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14">
-        <v>5</v>
-      </c>
-      <c r="AH57" s="14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32">
-        <v>29.1</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="X58" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y58" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z58" s="32">
-        <v>2021</v>
-      </c>
-      <c r="AA58" s="32"/>
-      <c r="AB58" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC58" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="32"/>
-      <c r="AG58" s="32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AH58" s="32">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
-        <v>30</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="17">
-        <v>240624</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L59" s="16">
-        <v>2</v>
-      </c>
-      <c r="M59" s="16">
-        <v>1</v>
-      </c>
-      <c r="N59" s="16">
-        <v>0</v>
-      </c>
-      <c r="O59" s="16">
-        <v>0</v>
-      </c>
-      <c r="P59" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="R59" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="S59" s="16">
-        <v>2025</v>
-      </c>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16">
-        <v>1</v>
-      </c>
-      <c r="V59" s="16">
-        <v>0</v>
-      </c>
-      <c r="W59" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="X59" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y59" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z59" s="16">
-        <v>2024</v>
-      </c>
-      <c r="AA59" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB59" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC59" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD59" s="16"/>
-      <c r="AE59" s="17">
-        <v>250</v>
-      </c>
-      <c r="AF59" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG59" s="16">
-        <v>49</v>
-      </c>
-      <c r="AH59" s="16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
-        <v>30.1</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="19"/>
@@ -10043,7 +9915,7 @@
         <v>128</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S60" s="18"/>
       <c r="T60" s="18"/>
@@ -10052,43 +9924,41 @@
       <c r="W60" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="X60" s="18"/>
+      <c r="X60" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="Y60" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Z60" s="18">
         <v>2024</v>
       </c>
-      <c r="AA60" s="18" t="s">
-        <v>264</v>
-      </c>
+      <c r="AA60" s="18"/>
       <c r="AB60" s="18" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AC60" s="18" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="AD60" s="18"/>
       <c r="AE60" s="19"/>
-      <c r="AF60" s="18" t="s">
-        <v>265</v>
-      </c>
+      <c r="AF60" s="18"/>
       <c r="AG60" s="18">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="AH60" s="18">
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
@@ -10107,50 +9977,38 @@
         <v>128</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
       <c r="U61" s="18"/>
       <c r="V61" s="18"/>
-      <c r="W61" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="X61" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y61" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z61" s="18">
-        <v>2024</v>
-      </c>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
       <c r="AA61" s="18"/>
-      <c r="AB61" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC61" s="18" t="s">
-        <v>201</v>
-      </c>
+      <c r="AB61" s="18"/>
+      <c r="AC61" s="18"/>
       <c r="AD61" s="18"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="18"/>
       <c r="AG61" s="18">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="AH61" s="18">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
@@ -10166,41 +10024,63 @@
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
       <c r="Q62" s="18" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="S62" s="18"/>
+        <v>263</v>
+      </c>
+      <c r="S62" s="18">
+        <v>2024</v>
+      </c>
       <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="18"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
+      <c r="U62" s="18">
+        <v>1</v>
+      </c>
+      <c r="V62" s="18">
+        <v>1</v>
+      </c>
+      <c r="W62" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="X62" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y62" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z62" s="18">
+        <v>2021</v>
+      </c>
+      <c r="AA62" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB62" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC62" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="AD62" s="18"/>
-      <c r="AE62" s="19"/>
+      <c r="AE62" s="19">
+        <v>1000</v>
+      </c>
       <c r="AF62" s="18"/>
       <c r="AG62" s="18">
-        <v>49.3</v>
+        <v>32</v>
       </c>
       <c r="AH62" s="18">
-        <v>46.3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
@@ -10216,10 +10096,10 @@
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
       <c r="Q63" s="18" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S63" s="18">
         <v>2024</v>
@@ -10228,51 +10108,51 @@
       <c r="U63" s="18">
         <v>1</v>
       </c>
-      <c r="V63" s="18">
-        <v>1</v>
-      </c>
+      <c r="V63" s="18"/>
       <c r="W63" s="18" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="X63" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Y63" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Z63" s="18">
         <v>2021</v>
       </c>
       <c r="AA63" s="18" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AB63" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AC63" s="18" t="s">
         <v>163</v>
       </c>
       <c r="AD63" s="18"/>
       <c r="AE63" s="19">
-        <v>1000</v>
-      </c>
-      <c r="AF63" s="18"/>
+        <v>500</v>
+      </c>
+      <c r="AF63" s="18" t="s">
+        <v>270</v>
+      </c>
       <c r="AG63" s="18">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="AH63" s="18">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
@@ -10291,7 +10171,7 @@
         <v>188</v>
       </c>
       <c r="R64" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S64" s="18">
         <v>2024</v>
@@ -10305,46 +10185,46 @@
         <v>197</v>
       </c>
       <c r="X64" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y64" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Z64" s="18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="AA64" s="18" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="AB64" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AC64" s="18" t="s">
         <v>163</v>
       </c>
       <c r="AD64" s="18"/>
       <c r="AE64" s="19">
-        <v>500</v>
+        <v>4965</v>
       </c>
       <c r="AF64" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG64" s="18">
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AH64" s="18">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="19"/>
@@ -10363,10 +10243,10 @@
         <v>188</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S65" s="18">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="T65" s="18"/>
       <c r="U65" s="18">
@@ -10377,151 +10257,79 @@
         <v>197</v>
       </c>
       <c r="X65" s="18" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Y65" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Z65" s="18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="AA65" s="18" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="AB65" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AC65" s="18" t="s">
         <v>163</v>
       </c>
       <c r="AD65" s="18"/>
       <c r="AE65" s="19">
-        <v>4965</v>
+        <v>500</v>
       </c>
       <c r="AF65" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AG65" s="18">
-        <v>32.200000000000003</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AH65" s="18">
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
-        <v>30.7</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="R66" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="S66" s="18">
-        <v>2023</v>
-      </c>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18">
-        <v>1</v>
-      </c>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="X66" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y66" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z66" s="18">
-        <v>2023</v>
-      </c>
-      <c r="AA66" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB66" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC66" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD66" s="18"/>
-      <c r="AE66" s="19">
-        <v>500</v>
-      </c>
-      <c r="AF66" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG66" s="18">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="AH66" s="18">
         <v>47.3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="34"/>
-      <c r="AC67" s="34"/>
-      <c r="AD67" s="34"/>
-      <c r="AE67" s="34"/>
-      <c r="AF67" s="34"/>
-      <c r="AG67" s="34"/>
-      <c r="AH67" s="34"/>
+    <row r="66" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="34"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH66">
-    <sortCondition ref="A2:A66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH65">
+    <sortCondition ref="A2:A65"/>
   </sortState>
-  <conditionalFormatting sqref="R1:R66">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="R1:R65">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Sample Data.xlsx
+++ b/data/Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleza\GitHub\iwrc-reports-dataviz-01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD32E191-24F4-44FD-962E-B1355DF65AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF5E8D-070A-4373-986A-A8F2F37FEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" activeTab="3" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
   </bookViews>
   <sheets>
     <sheet name="projects_data" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="288">
   <si>
     <t>Sheet ID</t>
   </si>
@@ -885,6 +885,24 @@
   </si>
   <si>
     <t>Lewis and Clark Community  College</t>
+  </si>
+  <si>
+    <t>University of Illinois at Chicago</t>
+  </si>
+  <si>
+    <t>Loyola University</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>uiuctmp1</t>
+  </si>
+  <si>
+    <t>uiuctmp2</t>
+  </si>
+  <si>
+    <t>lutmp1</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,6 +1146,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1481,32 +1508,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B66F19-B46A-4E69-A613-FE882F1044E4}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="17" style="35" customWidth="1"/>
+    <col min="7" max="9" width="19.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="26" style="35" customWidth="1"/>
+    <col min="12" max="16" width="15.42578125" style="35" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="35" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="35" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="37" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2402,7 +2430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2458,7 +2486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2514,7 +2542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -2570,7 +2598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2624,7 +2652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2680,7 +2708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2736,7 +2764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2792,7 +2820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2848,7 +2876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2904,7 +2932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -2960,7 +2988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>27</v>
       </c>
@@ -3006,7 +3034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>28</v>
       </c>
@@ -3062,7 +3090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>29</v>
       </c>
@@ -3118,7 +3146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -3174,25 +3202,108 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
+    <row r="31" spans="1:19" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
+        <v>31</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36">
+        <v>20000</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="36">
+        <v>5</v>
+      </c>
+      <c r="M31" s="36">
+        <v>2</v>
+      </c>
+      <c r="N31" s="36">
+        <v>2</v>
+      </c>
+      <c r="O31" s="36">
+        <v>0</v>
+      </c>
+      <c r="P31" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
+        <v>32</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="35">
+        <v>20000</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="35">
+        <v>33</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="35">
+        <v>19999</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="S33" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="35">
+        <v>34</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" s="35">
+        <v>17194</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="S34" s="35" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R30">
@@ -5760,11 +5871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123E9A6A-0EE0-46E6-B907-518876E35B49}">
   <dimension ref="A1:AH66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Sample Data.xlsx
+++ b/data/Sample Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleza\GitHub\iwrc-reports-dataviz-01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF5E8D-070A-4373-986A-A8F2F37FEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1136B-1F26-4079-A497-805711A76E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" activeTab="3" xr2:uid="{0DF7DD8F-831C-4C77-8EBF-695E8FE31660}"/>
   </bookViews>
   <sheets>
     <sheet name="projects_data" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="288">
   <si>
     <t>Sheet ID</t>
   </si>
@@ -1510,11 +1510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B66F19-B46A-4E69-A613-FE882F1044E4}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3004,9 @@
       <c r="E27" s="9">
         <v>9999</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="8" t="s">
         <v>135</v>
       </c>
@@ -5871,11 +5873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123E9A6A-0EE0-46E6-B907-518876E35B49}">
   <dimension ref="A1:AH66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9567,7 +9569,9 @@
       <c r="E54" s="9">
         <v>9999</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="G54" s="8" t="s">
         <v>135</v>
       </c>
